--- a/user_input_files/planillas-web/Switches.xlsx
+++ b/user_input_files/planillas-web/Switches.xlsx
@@ -1,37 +1,159 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+  <si>
+    <t>ID Switch</t>
+  </si>
+  <si>
+    <t>ID Ubicación</t>
+  </si>
+  <si>
+    <t>Nombre/Modelo</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Número de Serie</t>
+  </si>
+  <si>
+    <t>Gabinete Asociado</t>
+  </si>
+  <si>
+    <t>Número Total de Puertos</t>
+  </si>
+  <si>
+    <t>Puertos Usados</t>
+  </si>
+  <si>
+    <t>Puertos Disponibles</t>
+  </si>
+  <si>
+    <t>Soporta PoE</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Fecha de Instalación</t>
+  </si>
+  <si>
+    <t>Fecha de Último Mantenimiento</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>SW-001</t>
+  </si>
+  <si>
+    <t>SW-002</t>
+  </si>
+  <si>
+    <t>SW-003</t>
+  </si>
+  <si>
+    <t>Switch PoE 24 puertos</t>
+  </si>
+  <si>
+    <t>Switch PoE 8 puertos</t>
+  </si>
+  <si>
+    <t>Switch PoE 4 puertos</t>
+  </si>
+  <si>
+    <t>Cisco</t>
+  </si>
+  <si>
+    <t>TP-Link</t>
+  </si>
+  <si>
+    <t>Ubiquiti</t>
+  </si>
+  <si>
+    <t>SN-SW001</t>
+  </si>
+  <si>
+    <t>SN-SW002</t>
+  </si>
+  <si>
+    <t>SN-SW003</t>
+  </si>
+  <si>
+    <t>GAB-001</t>
+  </si>
+  <si>
+    <t>GAB-002</t>
+  </si>
+  <si>
+    <t>GAB-003</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>Funcionando</t>
+  </si>
+  <si>
+    <t>2023-01-15</t>
+  </si>
+  <si>
+    <t>2024-03-10</t>
+  </si>
+  <si>
+    <t>2024-07-20</t>
+  </si>
+  <si>
+    <t>2025-09-01</t>
+  </si>
+  <si>
+    <t>Conecta 10 cámaras domo + 1 PTZ + enlace fibra</t>
+  </si>
+  <si>
+    <t>Conecta 1 cámara PTZ + POE adicional</t>
+  </si>
+  <si>
+    <t>Alimenta 3 cámaras bullet</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +168,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,262 +484,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID Switch</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre/Modelo</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Marca</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Número de Serie</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Gabinete Asociado</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Número Total de Puertos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Puertos Usados</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Puertos Disponibles</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Soporta PoE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Estado</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha de Instalación</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha de Último Mantenimiento</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Observaciones</t>
-        </is>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SW-001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Switch PoE 24 puertos</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Cisco</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>SN-SW001</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>GAB-001</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
         <v>24</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>12</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2">
         <v>12</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Funcionando</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2023-01-15</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Conecta 10 cámaras domo + 1 PTZ + enlace fibra</t>
-        </is>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SW-002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Switch PoE 8 puertos</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>TP-Link</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SN-SW002</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>GAB-002</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3">
         <v>8</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3">
         <v>6</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Funcionando</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2024-03-10</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Conecta 1 cámara PTZ + POE adicional</t>
-        </is>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SW-003</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Switch PoE 4 puertos</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ubiquiti</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SN-SW003</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>GAB-003</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Funcionando</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2024-07-20</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Alimenta 3 cámaras bullet</t>
-        </is>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/user_input_files/planillas-web/Switches.xlsx
+++ b/user_input_files/planillas-web/Switches.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>ID Switch</t>
   </si>
@@ -58,6 +58,30 @@
     <t>Observaciones</t>
   </si>
   <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Número Serie</t>
+  </si>
+  <si>
+    <t>Gabinete</t>
+  </si>
+  <si>
+    <t>Total Puertos</t>
+  </si>
+  <si>
+    <t>PoE</t>
+  </si>
+  <si>
+    <t>Fecha Instalación</t>
+  </si>
+  <si>
+    <t>Fecha Último Mantenimiento</t>
+  </si>
+  <si>
     <t>SW-001</t>
   </si>
   <si>
@@ -67,6 +91,24 @@
     <t>SW-003</t>
   </si>
   <si>
+    <t>SW-004</t>
+  </si>
+  <si>
+    <t>SW-005</t>
+  </si>
+  <si>
+    <t>SW-006</t>
+  </si>
+  <si>
+    <t>UBI-006</t>
+  </si>
+  <si>
+    <t>UBI-007</t>
+  </si>
+  <si>
+    <t>UBI-004</t>
+  </si>
+  <si>
     <t>Switch PoE 24 puertos</t>
   </si>
   <si>
@@ -128,6 +170,57 @@
   </si>
   <si>
     <t>Alimenta 3 cámaras bullet</t>
+  </si>
+  <si>
+    <t>Switch campus Pucón</t>
+  </si>
+  <si>
+    <t>Switch principal CFT Prat</t>
+  </si>
+  <si>
+    <t>Sin puertos disponibles - considerar ampliación</t>
+  </si>
+  <si>
+    <t>TL-SG1008P</t>
+  </si>
+  <si>
+    <t>SG350-28P</t>
+  </si>
+  <si>
+    <t>US-8-150W</t>
+  </si>
+  <si>
+    <t>SN-SW004</t>
+  </si>
+  <si>
+    <t>SN-SW005</t>
+  </si>
+  <si>
+    <t>SN-SW006</t>
+  </si>
+  <si>
+    <t>GAB-004</t>
+  </si>
+  <si>
+    <t>GAB-005</t>
+  </si>
+  <si>
+    <t>GAB-006</t>
+  </si>
+  <si>
+    <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>2024-05-12</t>
+  </si>
+  <si>
+    <t>2024-06-20</t>
+  </si>
+  <si>
+    <t>2025-09-18</t>
+  </si>
+  <si>
+    <t>2025-10-10</t>
   </si>
 </sst>
 </file>
@@ -485,13 +578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,22 +627,46 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>24</v>
@@ -561,36 +678,36 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -602,33 +719,33 @@
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -640,16 +757,154 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5">
+        <v>8</v>
+      </c>
+      <c r="T5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="K4" t="s">
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6">
+        <v>24</v>
+      </c>
+      <c r="T6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>37</v>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S7">
+        <v>8</v>
+      </c>
+      <c r="T7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" t="s">
+        <v>66</v>
+      </c>
+      <c r="V7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
